--- a/docentes/Mateos Hernandez Victoria - Estadisticos 20242.xlsx
+++ b/docentes/Mateos Hernandez Victoria - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>Mat</t>
   </si>
@@ -85,265 +85,31 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>MARIN</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>ALTAMIRA</t>
-  </si>
-  <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>BONOLA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>ESCOBEDO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>FUENTES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>PASTRANA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
-    <t>MOLINA</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>VARILLAS</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>CARPINTEYRO</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>ALDUCIN</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>MIXTECO</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>YAMILETH</t>
-  </si>
-  <si>
-    <t>ABRIL</t>
-  </si>
-  <si>
-    <t>MELANY</t>
-  </si>
-  <si>
-    <t>MARGARITA</t>
-  </si>
-  <si>
-    <t>LINET</t>
-  </si>
-  <si>
-    <t>SAUL</t>
-  </si>
-  <si>
-    <t>ANGEL NAIN</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>OSWALDO</t>
-  </si>
-  <si>
-    <t>JANETH</t>
-  </si>
-  <si>
-    <t>ILSE JIMENA</t>
-  </si>
-  <si>
-    <t>DAYANA ASTRID</t>
-  </si>
-  <si>
-    <t>MARIAM MICHAELL</t>
-  </si>
-  <si>
-    <t>LAURA ISABEL</t>
-  </si>
-  <si>
-    <t>JAIRO</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>VIRIDIANA</t>
-  </si>
-  <si>
-    <t>ALEX TADEO</t>
-  </si>
-  <si>
-    <t>YEIMI ALEXANDER</t>
-  </si>
-  <si>
-    <t>DIEGO GREGORIO</t>
-  </si>
-  <si>
-    <t>ANGEL EDUC</t>
-  </si>
-  <si>
-    <t>AXEL JOSUE</t>
-  </si>
-  <si>
-    <t>ANGELA</t>
-  </si>
-  <si>
-    <t>REY</t>
-  </si>
-  <si>
-    <t>ARELI DANAE</t>
-  </si>
-  <si>
-    <t>ALEJANDRA</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>ANIELA SAMANTA</t>
-  </si>
-  <si>
-    <t>CONCEPCION GUADALUPE</t>
-  </si>
-  <si>
-    <t>MIRANDA</t>
-  </si>
-  <si>
-    <t>DAFNE</t>
-  </si>
-  <si>
-    <t>ALDO</t>
-  </si>
-  <si>
-    <t>GUADALUPE ANAHI</t>
+    <t>MAZABA</t>
+  </si>
+  <si>
+    <t>VALDIVIA</t>
+  </si>
+  <si>
+    <t>VILLARREAL</t>
+  </si>
+  <si>
+    <t>QUINTERO</t>
+  </si>
+  <si>
+    <t>TENORIO</t>
+  </si>
+  <si>
+    <t>DE URIARTE</t>
+  </si>
+  <si>
+    <t>MANUEL ABDUL</t>
+  </si>
+  <si>
+    <t>IKER YHAIR</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
   </si>
 </sst>
 </file>
@@ -770,7 +536,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -779,13 +545,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -889,7 +649,7 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -971,16 +731,19 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>81.58</v>
+      </c>
+      <c r="H2">
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -991,18 +754,15 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
         <v>0</v>
       </c>
     </row>
@@ -1017,16 +777,19 @@
         <v>34</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>34</v>
       </c>
-      <c r="E4">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1040,16 +803,19 @@
         <v>34</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>34</v>
       </c>
-      <c r="E5">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1063,16 +829,19 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>8.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1086,16 +855,19 @@
         <v>38</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1109,16 +881,19 @@
         <v>38</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>9.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1177,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>81.58</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1197,18 +972,15 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
         <v>0</v>
       </c>
     </row>
@@ -1235,7 +1007,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1261,7 +1033,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1287,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1313,7 +1085,7 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1339,7 +1111,7 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1384,22 +1156,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920081</v>
+        <v>24330051920373</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1407,22 +1179,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920113</v>
+        <v>24330051920341</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1430,738 +1202,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920097</v>
+        <v>24330051920060</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>23330051920105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>23330051920112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>23330051920078</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>23330051920077</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>23330051920080</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>23330051920082</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>23330051920085</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>23330051920086</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>23330051920084</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>23330051920087</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>23330051920088</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>23330051920089</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>23330051920230</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>23330051920090</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>23330051920091</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>23330051920234</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>23330051920094</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>23330051920251</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>23330051920099</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>23330051920098</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>23330051920100</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>23330051920102</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>23330051920103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>23320051070442</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>23330051920104</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>23330051920261</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>23330051920106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>23330051920107</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>23330051920108</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>23330051920114</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>23330051920115</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
